--- a/tester/Zeszyt1.xlsx
+++ b/tester/Zeszyt1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>SES</t>
   </si>
@@ -99,6 +99,54 @@
   </si>
   <si>
     <t>Motylek</t>
+  </si>
+  <si>
+    <t>0.050681</t>
+  </si>
+  <si>
+    <t>0.000184</t>
+  </si>
+  <si>
+    <t>0.000162</t>
+  </si>
+  <si>
+    <t>0.044626</t>
+  </si>
+  <si>
+    <t>7.png</t>
+  </si>
+  <si>
+    <t>Błędy</t>
+  </si>
+  <si>
+    <t>8 0.05</t>
+  </si>
+  <si>
+    <t>2 0.05</t>
+  </si>
+  <si>
+    <t>0.010105</t>
+  </si>
+  <si>
+    <t>0.012613</t>
+  </si>
+  <si>
+    <t>0.010050</t>
+  </si>
+  <si>
+    <t>0.012626</t>
+  </si>
+  <si>
+    <t>0.010021</t>
+  </si>
+  <si>
+    <t>0.012451</t>
+  </si>
+  <si>
+    <t>0.010044</t>
+  </si>
+  <si>
+    <t>0.012486</t>
   </si>
 </sst>
 </file>
@@ -454,15 +502,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,8 +527,11 @@
         <v>6</v>
       </c>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -502,11 +553,20 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
+      <c r="H2">
+        <v>16218</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
       <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3">
         <v>84</v>
@@ -526,8 +586,14 @@
       <c r="G3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -549,8 +615,14 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>42</v>
@@ -570,8 +642,14 @@
       <c r="G5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -593,11 +671,17 @@
       <c r="G6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" t="s">
+      <c r="H6">
+        <v>66046</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7">
         <v>258</v>
@@ -617,16 +701,80 @@
       <c r="G7" t="s">
         <v>23</v>
       </c>
+      <c r="H7">
+        <v>272</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>21192</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>21077</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <v>21015</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8">
+        <v>21064</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>26451</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>26479</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9">
+        <v>26112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>26184</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tester/Zeszyt1.xlsx
+++ b/tester/Zeszyt1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>SES</t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>0.012486</t>
+  </si>
+  <si>
+    <t>Lenna</t>
+  </si>
+  <si>
+    <t>DVB</t>
+  </si>
+  <si>
+    <t>0.012493</t>
+  </si>
+  <si>
+    <t>0.012591</t>
   </si>
 </sst>
 </file>
@@ -171,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -179,13 +191,151 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -502,13 +652,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="I19" sqref="B13:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -739,6 +892,9 @@
       <c r="J8" t="s">
         <v>32</v>
       </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
@@ -766,8 +922,229 @@
         <v>40</v>
       </c>
     </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5">
+        <v>18607</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1.2572E-2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>18591</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1.2560999999999999E-2</v>
+      </c>
+      <c r="F14" s="6">
+        <v>18510</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1.2507000000000001E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>18285</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1.2355E-2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8">
+        <v>18652</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1.2603E-2</v>
+      </c>
+      <c r="D15" s="9">
+        <v>18527</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1.2518E-2</v>
+      </c>
+      <c r="F15" s="9">
+        <v>18380</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1.2418999999999999E-2</v>
+      </c>
+      <c r="H15" s="9">
+        <v>18385</v>
+      </c>
+      <c r="I15" s="10">
+        <v>1.2422000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="8">
+        <v>18620</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1.2581E-2</v>
+      </c>
+      <c r="D16" s="9">
+        <v>18554</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1.2536E-2</v>
+      </c>
+      <c r="F16" s="9">
+        <v>18552</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1.2534999999999999E-2</v>
+      </c>
+      <c r="H16" s="9">
+        <v>18641</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1.2595E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8">
+        <v>18610</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1.2574E-2</v>
+      </c>
+      <c r="D17" s="9">
+        <v>18634</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1.2591E-2</v>
+      </c>
+      <c r="F17" s="9">
+        <v>18708</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1.2640999999999999E-2</v>
+      </c>
+      <c r="H17" s="9">
+        <v>18154</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1.2266000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="11">
+        <v>18591</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1.2560999999999999E-2</v>
+      </c>
+      <c r="D18" s="12">
+        <v>18248</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1.2330000000000001E-2</v>
+      </c>
+      <c r="F18" s="12">
+        <v>18611</v>
+      </c>
+      <c r="G18" s="12">
+        <v>1.2574999999999999E-2</v>
+      </c>
+      <c r="H18" s="12">
+        <v>18551</v>
+      </c>
+      <c r="I18" s="13">
+        <v>1.2534E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <f>AVERAGE(B14:B18)</f>
+        <v>18616</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" ref="C19:I19" si="0">AVERAGE(C14:C18)</f>
+        <v>1.2578200000000001E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>18510.8</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.25072E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>18552.2</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2535399999999999E-2</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="0"/>
+        <v>18403.2</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2434400000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>18489</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>18635</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
